--- a/data/processed/state_overviews/michigan_overview.xlsx
+++ b/data/processed/state_overviews/michigan_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2473</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2,473</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Alcona County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Alger County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Allegan County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>20</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Alpena County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>19</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Antrim County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Arenac County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Baraga County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Barry County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>12</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Bay County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>21</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Benzie County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>7</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Berrien County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>54</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Branch County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Calhoun County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>40</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Cass County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>8</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Charlevoix County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>19</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Cheboygan County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>5</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Chippewa County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>15</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Clare County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>3</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Clinton County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>10</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Crawford County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Delta County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>9</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Dickinson County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>8</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Eaton County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>33</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Emmet County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>20</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Genesee County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>83</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Gladwin County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>2</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Gogebic County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>6</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Grand Traverse County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>47</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Gratiot County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>9</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Hillsdale County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>7</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Houghton County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>15</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Huron County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>9</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Ingham County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>150</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Ionia County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>10</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Iosco County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>6</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Iron County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>7</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Isabella County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>18</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>34</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Kalamazoo County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>109</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Kalkaska County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>1</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Kent County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>214</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Keweenaw County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>2</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>3</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Lapeer County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>11</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Leelanau County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>16</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Lenawee County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>23</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Livingston County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>20</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Luce County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Mackinac County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>10</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Macomb County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>111</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Manistee County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>8</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Marquette County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>26</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Mason County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>10</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Mecosta County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>10</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Menominee County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>5</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Midland County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>42</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Missaukee County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>3</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>21</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Montcalm County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>6</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Montmorency County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>2</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Muskegon County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>46</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Newaygo County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>10</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Oakland County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>239</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Oceana County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>6</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Ogemaw County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>6</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Ontonagon County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>2</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Osceola County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>4</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>Oscoda County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>1</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>Otsego County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>17</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,8 +2674,10 @@
           <t>Ottawa County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>87</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,8 +2706,10 @@
           <t>Presque Isle County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>2</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2594,8 +2738,10 @@
           <t>Roscommon County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>4</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2624,8 +2770,10 @@
           <t>Saginaw County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>58</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2654,8 +2802,10 @@
           <t>Sanilac County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>6</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,8 +2834,10 @@
           <t>Schoolcraft County</t>
         </is>
       </c>
-      <c r="B76">
-        <v>1</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2714,8 +2866,10 @@
           <t>Shiawassee County</t>
         </is>
       </c>
-      <c r="B77">
-        <v>9</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2744,8 +2898,10 @@
           <t>St. Clair County</t>
         </is>
       </c>
-      <c r="B78">
-        <v>32</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2774,8 +2930,10 @@
           <t>St. Joseph County</t>
         </is>
       </c>
-      <c r="B79">
-        <v>10</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2804,8 +2962,10 @@
           <t>Tuscola County</t>
         </is>
       </c>
-      <c r="B80">
-        <v>3</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2834,8 +2994,10 @@
           <t>Van Buren County</t>
         </is>
       </c>
-      <c r="B81">
-        <v>13</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2864,8 +3026,10 @@
           <t>Washtenaw County</t>
         </is>
       </c>
-      <c r="B82">
-        <v>167</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2894,8 +3058,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B83">
-        <v>361</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2924,8 +3090,10 @@
           <t>Wexford County</t>
         </is>
       </c>
-      <c r="B84">
-        <v>9</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2945,6 +3113,38 @@
       <c r="F84" t="inlineStr">
         <is>
           <t>55.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2,473</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$4,577,112,023</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9.00%</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-10.23%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>65.79%</t>
         </is>
       </c>
     </row>
@@ -2999,8 +3199,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>298</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3029,8 +3231,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>115</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3059,8 +3263,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>142</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3089,8 +3295,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>144</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3119,8 +3327,10 @@
           <t>Congressional District 13</t>
         </is>
       </c>
-      <c r="B6">
-        <v>240</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3149,8 +3359,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B7">
-        <v>134</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3179,8 +3391,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B8">
-        <v>269</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3209,8 +3423,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B9">
-        <v>272</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3239,8 +3455,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B10">
-        <v>136</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3269,8 +3487,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B11">
-        <v>209</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3299,8 +3519,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B12">
-        <v>223</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3329,8 +3551,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B13">
-        <v>203</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3359,8 +3583,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B14">
-        <v>88</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3389,8 +3615,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B15">
-        <v>2473</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2,473</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3464,8 +3692,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>735</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3494,8 +3724,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>687</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3524,8 +3756,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>459</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3554,8 +3788,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>169</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3584,8 +3820,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>319</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3614,8 +3852,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>104</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3644,8 +3884,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>2473</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2,473</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3719,8 +3961,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>209</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3749,8 +3993,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>174</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3779,8 +4025,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>117</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3809,8 +4057,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>211</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3839,8 +4089,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>49</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3869,8 +4121,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>821</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3899,8 +4153,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>20</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3929,8 +4185,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3959,8 +4217,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>202</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3989,8 +4249,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>67</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4019,8 +4281,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>575</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4049,8 +4313,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>26</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4079,8 +4345,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2473</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2,473</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/michigan_overview.xlsx
+++ b/data/processed/state_overviews/michigan_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,123 +431,123 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alcona County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$869,604</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.99%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-21.94%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alger County</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2,473</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,009,608</t>
+          <t>$4,577,112,023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.32%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.49%</t>
+          <t>-10.23%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>65.79%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Allegan County</t>
+          <t>Alcona County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$12,580,803</t>
+          <t>$869,604</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.38%</t>
+          <t>10.99%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>-21.94%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -559,123 +559,123 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alpena County</t>
+          <t>Alger County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$85,048,496</t>
+          <t>$1,009,608</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.31%</t>
+          <t>12.32%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>-5.49%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>47.37%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Antrim County</t>
+          <t>Allegan County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,281,444</t>
+          <t>$12,580,803</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.42%</t>
+          <t>14.38%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.29%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arenac County</t>
+          <t>Alpena County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$4,721,566</t>
+          <t>$85,048,496</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.81%</t>
+          <t>12.31%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-28.03%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>47.37%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Baraga County</t>
+          <t>Antrim County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$504,126</t>
+          <t>$1,281,444</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>55.50%</t>
+          <t>27.42%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12.73%</t>
+          <t>11.29%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -687,123 +687,123 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Barry County</t>
+          <t>Arenac County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$3,403,462</t>
+          <t>$4,721,566</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14.43%</t>
+          <t>5.81%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-6.68%</t>
+          <t>-28.03%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bay County</t>
+          <t>Baraga County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$15,491,942</t>
+          <t>$504,126</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.56%</t>
+          <t>55.50%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-14.34%</t>
+          <t>12.73%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Benzie County</t>
+          <t>Barry County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$3,715,547</t>
+          <t>$3,403,462</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>14.43%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-13.72%</t>
+          <t>-6.68%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Berrien County</t>
+          <t>Bay County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$56,087,724</t>
+          <t>$15,491,942</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.13%</t>
+          <t>17.56%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-26.20%</t>
+          <t>-14.34%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -815,251 +815,251 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Branch County</t>
+          <t>Benzie County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$3,286,483</t>
+          <t>$3,715,547</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19.03%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-53.13%</t>
+          <t>-13.72%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Calhoun County</t>
+          <t>Berrien County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$71,459,401</t>
+          <t>$56,087,724</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.31%</t>
+          <t>11.13%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-12.75%</t>
+          <t>-26.20%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cass County</t>
+          <t>Branch County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$6,593,749</t>
+          <t>$3,286,483</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.17%</t>
+          <t>19.03%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-0.52%</t>
+          <t>-53.13%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Charlevoix County</t>
+          <t>Calhoun County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$6,420,430</t>
+          <t>$71,459,401</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.81%</t>
+          <t>7.31%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-2.45%</t>
+          <t>-12.75%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>57.89%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cheboygan County</t>
+          <t>Cass County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$898,487</t>
+          <t>$6,593,749</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>12.17%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-7.72%</t>
+          <t>-0.52%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chippewa County</t>
+          <t>Charlevoix County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$32,511,304</t>
+          <t>$6,420,430</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.71%</t>
+          <t>12.81%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-7.44%</t>
+          <t>-2.45%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>57.89%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Clare County</t>
+          <t>Cheboygan County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$2,402,796</t>
+          <t>$898,487</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19.91%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14.21%</t>
+          <t>-7.72%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Clinton County</t>
+          <t>Chippewa County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$10,571,053</t>
+          <t>$32,511,304</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>7.71%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-11.25%</t>
+          <t>-7.44%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1071,379 +1071,379 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Crawford County</t>
+          <t>Clare County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$5,671</t>
+          <t>$2,402,796</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>19.91%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>14.21%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Delta County</t>
+          <t>Clinton County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$2,196,577</t>
+          <t>$10,571,053</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-7.61%</t>
+          <t>-11.25%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dickinson County</t>
+          <t>Crawford County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$4,535,667</t>
+          <t>$5,671</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>0.47%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-59.25%</t>
+          <t>-1.15%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Eaton County</t>
+          <t>Delta County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$95,174,333</t>
+          <t>$2,196,577</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.61%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-23.13%</t>
+          <t>-7.61%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Emmet County</t>
+          <t>Dickinson County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$11,523,462</t>
+          <t>$4,535,667</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19.85%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-2.87%</t>
+          <t>-59.25%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>55.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Genesee County</t>
+          <t>Eaton County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$83,348,314</t>
+          <t>$95,174,333</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.49%</t>
+          <t>4.61%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-20.50%</t>
+          <t>-23.13%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>69.88%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gladwin County</t>
+          <t>Emmet County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$1,398,967</t>
+          <t>$11,523,462</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27.44%</t>
+          <t>19.85%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>24.29%</t>
+          <t>-2.87%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>55.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gogebic County</t>
+          <t>Genesee County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$6,102,865</t>
+          <t>$83,348,314</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.34%</t>
+          <t>2.49%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-1.75%</t>
+          <t>-20.50%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>69.88%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Grand Traverse County</t>
+          <t>Gladwin County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$132,635,895</t>
+          <t>$1,398,967</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.42%</t>
+          <t>27.44%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-10.70%</t>
+          <t>24.29%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>70.21%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gratiot County</t>
+          <t>Gogebic County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$22,769,840</t>
+          <t>$6,102,865</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5.50%</t>
+          <t>5.34%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-4.43%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hillsdale County</t>
+          <t>Grand Traverse County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$2,414,233</t>
+          <t>$132,635,895</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>7.42%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-16.79%</t>
+          <t>-10.70%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>70.21%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Houghton County</t>
+          <t>Gratiot County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$8,039,581</t>
+          <t>$22,769,840</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8.51%</t>
+          <t>5.50%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-28.30%</t>
+          <t>-4.43%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1455,1696 +1455,1728 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Huron County</t>
+          <t>Hillsdale County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$6,603,364</t>
+          <t>$2,414,233</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13.04%</t>
+          <t>5.70%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>-16.79%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ingham County</t>
+          <t>Houghton County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$345,194,152</t>
+          <t>$8,039,581</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7.91%</t>
+          <t>8.51%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-16.86%</t>
+          <t>-28.30%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>75.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ionia County</t>
+          <t>Huron County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$23,047,172</t>
+          <t>$6,603,364</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9.54%</t>
+          <t>13.04%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-35.80%</t>
+          <t>-0.69%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Iosco County</t>
+          <t>Ingham County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$3,996,765</t>
+          <t>$345,194,152</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>25.35%</t>
+          <t>7.91%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-31.85%</t>
+          <t>-16.86%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.33%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Iron County</t>
+          <t>Ionia County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$2,788,594</t>
+          <t>$23,047,172</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>9.54%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-13.59%</t>
+          <t>-35.80%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Isabella County</t>
+          <t>Iosco County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$9,878,560</t>
+          <t>$3,996,765</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6.44%</t>
+          <t>25.35%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-10.76%</t>
+          <t>-31.85%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>61.11%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Iron County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$62,932,466</t>
+          <t>$2,788,594</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16.55%</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-9.13%</t>
+          <t>-13.59%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>61.76%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kalamazoo County</t>
+          <t>Isabella County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$149,997,970</t>
+          <t>$9,878,560</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8.62%</t>
+          <t>6.44%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-10.67%</t>
+          <t>-10.76%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>68.81%</t>
+          <t>61.11%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kalkaska County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$204,725</t>
+          <t>$62,932,466</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15.94%</t>
+          <t>16.55%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-38.03%</t>
+          <t>-9.13%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>61.76%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kent County</t>
+          <t>Kalamazoo County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$540,371,094</t>
+          <t>$149,997,970</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9.54%</t>
+          <t>8.62%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-4.07%</t>
+          <t>-10.67%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>57.48%</t>
+          <t>68.81%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Keweenaw County</t>
+          <t>Kalkaska County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$81,859</t>
+          <t>$204,725</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>28.34%</t>
+          <t>15.94%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17.62%</t>
+          <t>-38.03%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Kent County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>214</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$12,853,974</t>
+          <t>$540,371,094</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>9.54%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-59.38%</t>
+          <t>-4.07%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>57.48%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lapeer County</t>
+          <t>Keweenaw County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$2,277,493</t>
+          <t>$81,859</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>9.60%</t>
+          <t>28.34%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>17.62%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Leelanau County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$6,778,174</t>
+          <t>$12,853,974</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>29.47%</t>
+          <t>5.15%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>23.51%</t>
+          <t>-59.38%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Lenawee County</t>
+          <t>Lapeer County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$21,190,979</t>
+          <t>$2,277,493</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.64%</t>
+          <t>9.60%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-6.14%</t>
+          <t>-0.49%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Livingston County</t>
+          <t>Leelanau County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$6,397,289</t>
+          <t>$6,778,174</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>15.88%</t>
+          <t>29.47%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>23.51%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>45.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Luce County</t>
+          <t>Lenawee County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$14,573</t>
+          <t>$21,190,979</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>81.66%</t>
+          <t>10.64%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-18.34%</t>
+          <t>-6.14%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.87%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mackinac County</t>
+          <t>Livingston County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$6,339,933</t>
+          <t>$6,397,289</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15.08%</t>
+          <t>15.88%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-7.86%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>45.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Macomb County</t>
+          <t>Luce County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$88,565,396</t>
+          <t>$14,573</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.02%</t>
+          <t>81.66%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-56.53%</t>
+          <t>-18.34%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>81.98%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Manistee County</t>
+          <t>Mackinac County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$5,023,540</t>
+          <t>$6,339,933</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>15.08%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-8.44%</t>
+          <t>-7.86%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Marquette County</t>
+          <t>Macomb County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$16,216,320</t>
+          <t>$88,565,396</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16.95%</t>
+          <t>4.02%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-4.43%</t>
+          <t>-56.53%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>81.98%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mason County</t>
+          <t>Manistee County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$6,513,185</t>
+          <t>$5,023,540</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-42.14%</t>
+          <t>-8.44%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mecosta County</t>
+          <t>Marquette County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$3,323,434</t>
+          <t>$16,216,320</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8.14%</t>
+          <t>16.95%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-19.06%</t>
+          <t>-4.43%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Menominee County</t>
+          <t>Mason County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$355,550</t>
+          <t>$6,513,185</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>18.39%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>-42.14%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Midland County</t>
+          <t>Mecosta County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$49,582,940</t>
+          <t>$3,323,434</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.16%</t>
+          <t>8.14%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-3.71%</t>
+          <t>-19.06%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Missaukee County</t>
+          <t>Menominee County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$562,550</t>
+          <t>$355,550</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>9.91%</t>
+          <t>18.39%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>3.27%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Midland County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$22,775,187</t>
+          <t>$49,582,940</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>10.16%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-34.75%</t>
+          <t>-3.71%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Montcalm County</t>
+          <t>Missaukee County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$11,141,152</t>
+          <t>$562,550</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.38%</t>
+          <t>9.91%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-27.15%</t>
+          <t>-0.01%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Montmorency County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$10,567,211</t>
+          <t>$22,775,187</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.35%</t>
+          <t>7.58%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-21.80%</t>
+          <t>-34.75%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Muskegon County</t>
+          <t>Montcalm County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$96,677,728</t>
+          <t>$11,141,152</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13.53%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-8.96%</t>
+          <t>-27.15%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Newaygo County</t>
+          <t>Montmorency County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$21,061,361</t>
+          <t>$10,567,211</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2.99%</t>
+          <t>10.35%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-18.16%</t>
+          <t>-21.80%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Oakland County</t>
+          <t>Muskegon County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$459,648,571</t>
+          <t>$96,677,728</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>13.53%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-6.30%</t>
+          <t>-8.96%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>65.27%</t>
+          <t>60.87%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Oceana County</t>
+          <t>Newaygo County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$974,964</t>
+          <t>$21,061,361</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13.50%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>7.42%</t>
+          <t>-18.16%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ogemaw County</t>
+          <t>Oakland County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$3,116,222</t>
+          <t>$459,648,571</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>15.77%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-9.74%</t>
+          <t>-6.30%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>65.27%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ontonagon County</t>
+          <t>Oceana County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$96,176</t>
+          <t>$974,964</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>13.50%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-2.88%</t>
+          <t>7.42%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Osceola County</t>
+          <t>Ogemaw County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$2,836,366</t>
+          <t>$3,116,222</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-8.91%</t>
+          <t>15.77%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-26.10%</t>
+          <t>-9.74%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Oscoda County</t>
+          <t>Ontonagon County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$396,123</t>
+          <t>$96,176</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.47%</t>
+          <t>-1.72%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-59.79%</t>
+          <t>-2.88%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Otsego County</t>
+          <t>Osceola County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$8,163,939</t>
+          <t>$2,836,366</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>-8.91%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-5.98%</t>
+          <t>-26.10%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ottawa County</t>
+          <t>Oscoda County</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$70,088,434</t>
+          <t>$396,123</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10.21%</t>
+          <t>4.47%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-6.68%</t>
+          <t>-59.79%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>62.07%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Presque Isle County</t>
+          <t>Otsego County</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$975,944</t>
+          <t>$8,163,939</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>20.52%</t>
+          <t>7.99%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-25.80%</t>
+          <t>-5.98%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>64.71%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Roscommon County</t>
+          <t>Ottawa County</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$7,936,440</t>
+          <t>$70,088,434</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.88%</t>
+          <t>10.21%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-22.46%</t>
+          <t>-6.68%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>62.07%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Saginaw County</t>
+          <t>Presque Isle County</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$118,561,172</t>
+          <t>$975,944</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>20.52%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-19.34%</t>
+          <t>-25.80%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>74.14%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sanilac County</t>
+          <t>Roscommon County</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$3,415,986</t>
+          <t>$7,936,440</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>3.88%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-15.34%</t>
+          <t>-22.46%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Schoolcraft County</t>
+          <t>Saginaw County</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$3,552,100</t>
+          <t>$118,561,172</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.07%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>-19.34%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>74.14%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Shiawassee County</t>
+          <t>Sanilac County</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$19,639,123</t>
+          <t>$3,415,986</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17.32%</t>
+          <t>-0.44%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-3.95%</t>
+          <t>-15.34%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>St. Clair County</t>
+          <t>Schoolcraft County</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$13,321,439</t>
+          <t>$3,552,100</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>10.64%</t>
+          <t>7.07%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-20.48%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>65.62%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>St. Joseph County</t>
+          <t>Shiawassee County</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$15,002,415</t>
+          <t>$19,639,123</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>17.32%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-6.51%</t>
+          <t>-3.95%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Tuscola County</t>
+          <t>St. Clair County</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$11,866,720</t>
+          <t>$13,321,439</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.65%</t>
+          <t>10.64%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6.07%</t>
+          <t>-20.48%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>65.62%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Van Buren County</t>
+          <t>St. Joseph County</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$31,479,850</t>
+          <t>$15,002,415</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>23.79%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4.18%</t>
+          <t>-6.51%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Washtenaw County</t>
+          <t>Tuscola County</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$484,145,079</t>
+          <t>$11,866,720</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14.10%</t>
+          <t>16.65%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-6.35%</t>
+          <t>6.07%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>60.48%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Van Buren County</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$1,097,878,784</t>
+          <t>$31,479,850</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>23.79%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-17.96%</t>
+          <t>4.18%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>68.14%</t>
+          <t>46.15%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wexford County</t>
+          <t>Washtenaw County</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$1,698,056</t>
+          <t>$484,145,079</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5.07%</t>
+          <t>14.10%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-9.03%</t>
+          <t>-6.35%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>60.48%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2,473</t>
+          <t>361</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$4,577,112,023</t>
+          <t>$1,097,878,784</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-10.23%</t>
+          <t>-17.96%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>65.79%</t>
+          <t>68.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Wexford County</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$1,698,056</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.07%</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-9.03%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3187,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3164,480 +3196,512 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$374,163,528</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.02%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-5.70%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60.40%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>2,473</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$84,335,392</t>
+          <t>$4,577,112,023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-45.56%</t>
+          <t>-10.23%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>80.87%</t>
+          <t>65.79%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>298</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$253,245,286</t>
+          <t>$374,163,528</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.37%</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.25%</t>
+          <t>-5.70%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68.31%</t>
+          <t>60.40%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 12</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$375,535,499</t>
+          <t>$149,137,817</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.59%</t>
+          <t>7.39%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.33%</t>
+          <t>-9.28%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.81%</t>
+          <t>66.42%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 13</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>269</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$880,206,817</t>
+          <t>$630,419,073</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-19.69%</t>
+          <t>-6.27%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.33%</t>
+          <t>59.85%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>272</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$149,137,817</t>
+          <t>$361,911,439</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.39%</t>
+          <t>9.45%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-9.28%</t>
+          <t>-9.63%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66.42%</t>
+          <t>64.71%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$630,419,073</t>
+          <t>$151,074,124</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-6.27%</t>
+          <t>-8.56%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>59.85%</t>
+          <t>65.44%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$361,911,439</t>
+          <t>$511,155,105</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.45%</t>
+          <t>13.18%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.63%</t>
+          <t>-9.67%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>62.20%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$151,074,124</t>
+          <t>$476,840,968</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>7.58%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-8.56%</t>
+          <t>-14.28%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65.44%</t>
+          <t>69.96%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>203</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$511,155,105</t>
+          <t>$265,671,727</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.18%</t>
+          <t>6.53%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-9.67%</t>
+          <t>-15.02%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>62.20%</t>
+          <t>70.44%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$476,840,968</t>
+          <t>$63,415,248</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>9.85%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-14.28%</t>
+          <t>-5.90%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.96%</t>
+          <t>68.18%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$265,671,727</t>
+          <t>$84,335,392</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.53%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-15.02%</t>
+          <t>-45.56%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>70.44%</t>
+          <t>80.87%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>11th Congressional district</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$63,415,248</t>
+          <t>$253,245,286</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.85%</t>
+          <t>7.37%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-5.90%</t>
+          <t>-8.25%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>68.18%</t>
+          <t>68.31%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12th Congressional district</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2,473</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$4,577,112,023</t>
+          <t>$375,535,499</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>9.59%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-10.23%</t>
+          <t>-9.33%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65.79%</t>
+          <t>61.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13th Congressional district</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$880,206,817</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.53%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-19.69%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>68.33%</t>
         </is>
       </c>
     </row>
@@ -3662,34 +3726,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3721,128 +3785,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>319</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$566,903,475</t>
+          <t>$3,373,491,759</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.49%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.21%</t>
+          <t>-6.47%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.07%</t>
+          <t>69.28%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>687</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$129,406,578</t>
+          <t>$566,903,475</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.58%</t>
+          <t>9.49%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.08%</t>
+          <t>-10.21%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>65.07%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$420,504,880</t>
+          <t>$129,406,578</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.54%</t>
+          <t>9.58%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.36%</t>
+          <t>-14.08%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.82%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$3,373,491,759</t>
+          <t>$420,504,880</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>9.54%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.47%</t>
+          <t>-8.36%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.28%</t>
+          <t>69.82%</t>
         </is>
       </c>
     </row>
@@ -3931,34 +3995,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3990,7 +4054,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4022,7 +4086,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4054,7 +4118,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4118,7 +4182,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4150,7 +4214,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4182,160 +4246,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$738,817</t>
+          <t>$367,371,074</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-73.34%</t>
+          <t>-16.40%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>64.85%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$367,371,074</t>
+          <t>$68,541,384</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.25%</t>
+          <t>12.86%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-16.40%</t>
+          <t>-0.49%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64.85%</t>
+          <t>50.75%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$68,541,384</t>
+          <t>$738,817</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.86%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>-73.34%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.75%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,778,170,470</t>
+          <t>$168,974,585</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.65%</t>
+          <t>3.72%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-15.02%</t>
+          <t>-4.91%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71.48%</t>
+          <t>73.08%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>575</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$168,974,585</t>
+          <t>$1,778,170,470</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.72%</t>
+          <t>6.65%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-4.91%</t>
+          <t>-15.02%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>73.08%</t>
+          <t>71.48%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/michigan_overview.xlsx
+++ b/data/processed/state_overviews/michigan_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>65.79%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2,473</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$4,577,112,023</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.00%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-10.23%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.79%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.79%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,473</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$4,577,112,023</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.00%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.23%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.79%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$869,604</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.99%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-21.94%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,009,608</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>12.32%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-5.49%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$12,580,803</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>14.38%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.10%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>47.37%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$85,048,496</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>12.31%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.50%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>47.37%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,281,444</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>27.42%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>11.29%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$4,721,566</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5.81%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-28.03%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$504,126</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>55.50%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>12.73%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$3,403,462</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>14.43%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-6.68%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$15,491,942</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>17.56%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-14.34%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$3,715,547</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>3.92%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-13.72%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$56,087,724</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>11.13%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-26.20%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$3,286,483</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>19.03%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-53.13%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$71,459,401</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>7.31%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-12.75%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$6,593,749</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>12.17%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-0.52%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>57.89%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$6,420,430</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>12.81%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-2.45%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>57.89%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$898,487</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>11.11%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-7.72%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$32,511,304</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>7.71%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-7.44%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$2,402,796</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>19.91%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>14.21%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$10,571,053</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>4.94%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-11.25%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$5,671</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.47%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-1.15%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$2,196,577</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>6.27%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-7.61%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$4,535,667</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>6.76%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-59.25%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$95,174,333</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>4.61%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-23.13%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>55.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$11,523,462</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>19.85%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-2.87%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>55.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>69.88%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$83,348,314</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2.49%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-20.50%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>69.88%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$1,398,967</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>27.44%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>24.29%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$6,102,865</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>5.34%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-1.75%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>70.21%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$132,635,895</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>7.42%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-10.70%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>70.21%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$22,769,840</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>5.50%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-4.43%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$2,414,233</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>5.70%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-16.79%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$8,039,581</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>8.51%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-28.30%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$6,603,364</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>13.04%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-0.69%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>75.33%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$345,194,152</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>7.91%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-16.86%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>75.33%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$23,047,172</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>9.54%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-35.80%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$3,996,765</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>25.35%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-31.85%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$2,788,594</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2.16%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-13.59%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>61.11%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$9,878,560</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>6.44%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-10.76%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>61.11%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>61.76%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$62,932,466</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>16.55%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-9.13%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>61.76%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>68.81%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$149,997,970</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-10.67%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>68.81%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$204,725</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>15.94%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-38.03%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>57.48%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>214</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$540,371,094</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>9.54%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-4.07%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>57.48%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$81,859</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>28.34%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>17.62%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$12,853,974</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>5.15%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-59.38%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$2,277,493</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>9.60%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-0.49%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$6,778,174</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>29.47%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>23.51%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$21,190,979</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>10.64%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-6.14%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>60.87%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>45.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$6,397,289</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>4.44%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>45.00%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$14,573</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>81.66%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-18.34%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$6,339,933</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>15.08%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-7.86%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>81.98%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$88,565,396</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>4.02%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-56.53%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>81.98%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$5,023,540</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>4.21%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-8.44%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>61.54%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$16,216,320</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>16.95%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-4.43%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$6,513,185</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>3.92%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-42.14%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$3,323,434</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>8.14%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-19.06%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$355,550</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>18.39%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>3.27%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$49,582,940</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>10.16%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-3.71%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$562,550</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>9.91%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-0.01%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$22,775,187</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>7.58%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-34.75%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$11,141,152</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2.38%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-27.15%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$10,567,211</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>10.35%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-21.80%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$96,677,728</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>13.53%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-8.96%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>60.87%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$21,061,361</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2.99%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-18.16%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>65.27%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>239</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$459,648,571</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>9.09%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-6.30%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>65.27%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$974,964</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>13.50%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>7.42%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$3,116,222</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>15.77%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-9.74%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$96,176</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>-1.72%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-2.88%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$2,836,366</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>-8.91%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-26.10%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$396,123</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>4.47%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-59.79%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>64.71%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$8,163,939</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>7.99%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-5.98%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>64.71%</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>62.07%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>87</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>$70,088,434</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>10.21%</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>-6.68%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>62.07%</t>
         </is>
       </c>
     </row>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>$975,944</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>20.52%</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>-25.80%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>$7,936,440</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>3.88%</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>-22.46%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>74.14%</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>$118,561,172</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>7.03%</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>-19.34%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>74.14%</t>
         </is>
       </c>
     </row>
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>$3,415,986</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>-0.44%</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>-15.34%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2900,27 +2900,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>$3,552,100</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>7.07%</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>0.19%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2932,27 +2932,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>$19,639,123</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>17.32%</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>-3.95%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -2964,27 +2964,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>65.62%</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>$13,321,439</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>10.64%</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>-20.48%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>65.62%</t>
         </is>
       </c>
     </row>
@@ -2996,27 +2996,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>$15,002,415</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>6.08%</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>-6.51%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -3028,27 +3028,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>$11,866,720</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>16.65%</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>6.07%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3060,27 +3060,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>$31,479,850</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>23.79%</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>4.18%</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>46.15%</t>
         </is>
       </c>
     </row>
@@ -3092,27 +3092,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>60.48%</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>167</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>$484,145,079</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>14.10%</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>-6.35%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>60.48%</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3124,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>68.14%</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>361</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>$1,097,878,784</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>-17.96%</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>68.14%</t>
         </is>
       </c>
     </row>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>$1,698,056</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>5.07%</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>-9.03%</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -3201,27 +3201,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -3233,27 +3233,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -3265,443 +3265,443 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.79%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,473</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$4,577,112,023</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.00%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.23%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.79%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>60.40%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>298</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$374,163,528</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.02%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-5.70%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>60.40%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>80.87%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$149,137,817</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.39%</t>
+          <t>$84,335,392</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.28%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.42%</t>
+          <t>-45.56%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>68.31%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$630,419,073</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>$253,245,286</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.27%</t>
+          <t>7.37%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>59.85%</t>
+          <t>-8.25%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>61.81%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$361,911,439</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.45%</t>
+          <t>$375,535,499</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-9.63%</t>
+          <t>9.59%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>-9.33%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>68.33%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$151,074,124</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>$880,206,817</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-8.56%</t>
+          <t>7.53%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>65.44%</t>
+          <t>-19.69%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>66.42%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$511,155,105</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.18%</t>
+          <t>$149,137,817</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.67%</t>
+          <t>7.39%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>62.20%</t>
+          <t>-9.28%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>59.85%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$476,840,968</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>$630,419,073</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-14.28%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69.96%</t>
+          <t>-6.27%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>64.71%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$265,671,727</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.53%</t>
+          <t>$361,911,439</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-15.02%</t>
+          <t>9.45%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70.44%</t>
+          <t>-9.63%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>65.44%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$63,415,248</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.85%</t>
+          <t>$151,074,124</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-5.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68.18%</t>
+          <t>-8.56%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>62.20%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$84,335,392</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>$511,155,105</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-45.56%</t>
+          <t>13.18%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>80.87%</t>
+          <t>-9.67%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>69.96%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$253,245,286</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.37%</t>
+          <t>$476,840,968</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-8.25%</t>
+          <t>7.58%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>68.31%</t>
+          <t>-14.28%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>70.44%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$375,535,499</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.59%</t>
+          <t>$265,671,727</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-9.33%</t>
+          <t>6.53%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>61.81%</t>
+          <t>-15.02%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>68.18%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$880,206,817</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>$63,415,248</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-19.69%</t>
+          <t>9.85%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>68.33%</t>
+          <t>-5.90%</t>
         </is>
       </c>
     </row>
@@ -3726,187 +3726,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>63.54%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>735</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$73,859,509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.35%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-10.72%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>63.54%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>65.07%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$3,373,491,759</t>
+          <t>687</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>$566,903,475</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.47%</t>
+          <t>9.49%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69.28%</t>
+          <t>-10.21%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$566,903,475</t>
+          <t>459</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.49%</t>
+          <t>$129,406,578</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-10.21%</t>
+          <t>9.58%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65.07%</t>
+          <t>-14.08%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>69.82%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$129,406,578</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.58%</t>
+          <t>$420,504,880</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-14.08%</t>
+          <t>9.54%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-8.36%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>69.28%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$420,504,880</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.54%</t>
+          <t>$3,373,491,759</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.36%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.82%</t>
+          <t>-6.47%</t>
         </is>
       </c>
     </row>
@@ -3918,27 +3918,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>65.38%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>104</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$12,945,822</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>25.34%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-20.67%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>65.38%</t>
         </is>
       </c>
     </row>
@@ -3950,27 +3950,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>65.79%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2,473</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$4,577,112,023</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.00%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.23%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>65.79%</t>
         </is>
       </c>
     </row>
@@ -3995,155 +3995,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>60.29%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$171,902,239</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>15.36%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-6.35%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>60.29%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>64.37%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>174</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$165,789,075</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>12.81%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-9.62%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>64.37%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>117</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$78,286,039</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>19.22%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.91%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>44.44%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>65.88%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>211</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$277,354,009</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.57%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-8.97%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>65.88%</t>
         </is>
       </c>
     </row>
@@ -4155,251 +4155,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>46.94%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$367,238,972</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>6.87%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.19%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>46.94%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>68.70%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>821</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,109,913,903</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.28%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-15.48%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>68.70%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$22,831,456</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5.39%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-6.29%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$367,371,074</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.25%</t>
+          <t>$738,817</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-16.40%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64.85%</t>
+          <t>-73.34%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>64.85%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$68,541,384</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.86%</t>
+          <t>$367,371,074</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>50.75%</t>
+          <t>-16.40%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>50.75%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$738,817</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>$68,541,384</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-73.34%</t>
+          <t>12.86%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-0.49%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>71.48%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$168,974,585</t>
+          <t>575</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.72%</t>
+          <t>$1,778,170,470</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-4.91%</t>
+          <t>6.65%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>73.08%</t>
+          <t>-15.02%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>73.08%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,778,170,470</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.65%</t>
+          <t>$168,974,585</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-15.02%</t>
+          <t>3.72%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>71.48%</t>
+          <t>-4.91%</t>
         </is>
       </c>
     </row>
@@ -4411,27 +4411,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>65.79%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2,473</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$4,577,112,023</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.00%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-10.23%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>65.79%</t>
         </is>
       </c>
     </row>
